--- a/matches_daily.xlsx
+++ b/matches_daily.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>Away Win Odds</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Low Odds Type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -497,6 +502,7 @@
           <t>1.66</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -529,6 +535,7 @@
           <t>5.40</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -548,7 +555,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -558,9 +565,10 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -593,6 +601,7 @@
           <t>2.80</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -625,6 +634,7 @@
           <t>1.57</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -657,6 +667,7 @@
           <t>2.37</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -689,6 +700,7 @@
           <t>2.67</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -721,6 +733,7 @@
           <t>3.35</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -753,6 +766,7 @@
           <t>3.85</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -785,6 +799,7 @@
           <t>4.30</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -817,6 +832,7 @@
           <t>3.80</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -849,6 +865,7 @@
           <t>1.61</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -881,6 +898,7 @@
           <t>4.90</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -913,6 +931,7 @@
           <t>1.51</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -945,6 +964,7 @@
           <t>1.88</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -977,6 +997,11 @@
           <t>1.47</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Away Win</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -996,19 +1021,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1041,6 +1067,7 @@
           <t>4.60</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1060,7 +1087,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1070,9 +1097,10 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1105,6 +1133,7 @@
           <t>1.88</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1137,6 +1166,11 @@
           <t>13.00</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Home Win</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1161,14 +1195,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1201,6 +1236,7 @@
           <t>3.45</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1233,6 +1269,7 @@
           <t>2.47</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1265,6 +1302,7 @@
           <t>2.22</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1284,19 +1322,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1329,6 +1368,7 @@
           <t>3.50</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1361,6 +1401,7 @@
           <t>2.35</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1373,7 +1414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1412,36 +1453,83 @@
           <t>Away Win Odds</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Low Odds Type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Neom SC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dzisiaj, 18:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Away Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>PAOK Saloniki</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>OFI Crete</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Dzisiaj, 18:00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>1.15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.60</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>13.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Home Win</t>
         </is>
       </c>
     </row>

--- a/matches_daily.xlsx
+++ b/matches_daily.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,32 +540,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dzisiaj, 15:00</t>
+          <t>Dzisiaj, 15:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -573,32 +573,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dzisiaj, 15:00</t>
+          <t>Dzisiaj, 17:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -606,32 +606,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dzisiaj, 18:00</t>
+          <t>Dzisiaj, 15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -639,32 +639,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Torino FC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maroko</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dzisiaj, 20:00</t>
+          <t>Dzisiaj, 18:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -672,98 +672,106 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dzisiaj, 14:00</t>
+          <t>Dzisiaj, 20:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Home Win</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dzisiaj, 16:15</t>
+          <t>Dzisiaj, 15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Home Win</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dzisiaj, 18:30</t>
+          <t>Dzisiaj, 17:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -771,32 +779,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dzisiaj, 18:30</t>
+          <t>Dzisiaj, 17:15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -804,32 +812,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Olympique Lyon</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dzisiaj, 21:00</t>
+          <t>Dzisiaj, 20:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -837,32 +845,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Dender</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dzisiaj, 15:00</t>
+          <t>Dzisiaj, 16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -870,32 +878,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Sporting Charleroi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dzisiaj, 17:15</t>
+          <t>Dzisiaj, 18:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -903,32 +911,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Sint-Truiden</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Al Qadisiyah</t>
+          <t>Leuven</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dzisiaj, 16:15</t>
+          <t>Dzisiaj, 19:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -936,115 +944,119 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Al Taawoun</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dzisiaj, 18:30</t>
+          <t>Dzisiaj, 14:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Away Win</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Neom SC</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dzisiaj, 18:30</t>
+          <t>Dzisiaj, 14:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Away Win</t>
-        </is>
-      </c>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Feyenoord Rotterdam</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dzisiaj, 14:00</t>
+          <t>Dzisiaj, 16:45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Home Win</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1054,17 +1066,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1072,32 +1084,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Grasshopper</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dzisiaj, 16:30</t>
+          <t>Dzisiaj, 19:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1105,32 +1117,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AE Larissa</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aris Saloniki</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Dzisiaj, 16:00</t>
+          <t>Dzisiaj, 21:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1138,69 +1150,65 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PAOK Saloniki</t>
+          <t>Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OFI Crete</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dzisiaj, 18:00</t>
+          <t>Dzisiaj, 14:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Home Win</t>
-        </is>
-      </c>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AEK Ateny</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dzisiaj, 20:00</t>
+          <t>Dzisiaj, 16:45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1208,17 +1216,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UNAM Pumas</t>
+          <t>Dinamo Bukareszt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>U Cluj</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dzisiaj, 19:00</t>
+          <t>Dzisiaj, 19:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1228,12 +1236,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1241,32 +1249,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Juarez</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Jutro, 00:00</t>
+          <t>Dzisiaj, 15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1274,32 +1282,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Jutro, 02:00</t>
+          <t>Dzisiaj, 15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1307,22 +1315,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dzisiaj, 14:30</t>
+          <t>Dzisiaj, 18:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1332,7 +1340,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1340,68 +1348,35 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Maroko</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dzisiaj, 14:30</t>
+          <t>Dzisiaj, 20:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>FC Eindhoven</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Willem II Tilburg</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Dzisiaj, 16:45</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1414,7 +1389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1462,72 +1437,146 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Neom SC</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dzisiaj, 18:30</t>
+          <t>Dzisiaj, 20:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Away Win</t>
+          <t>Home Win</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PAOK Saloniki</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OFI Crete</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dzisiaj, 18:00</t>
+          <t>Dzisiaj, 15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>Home Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dzisiaj, 14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Away Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Feyenoord Rotterdam</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dzisiaj, 16:45</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Home Win</t>
         </is>
